--- a/public/files/提品匯入範例.xlsx
+++ b/public/files/提品匯入範例.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\f4564\OneDrive\桌面\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842026BD-828E-4C17-A692-239538CD2E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FCE5D8-FC4A-442B-BED8-D68EAFC405A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="功能說明" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1824" uniqueCount="1630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="1634">
   <si>
     <t>功能概述</t>
   </si>
@@ -5120,6 +5120,22 @@
   </si>
   <si>
     <t>桃紅色</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>活動結束日期</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-08-14</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-08-15</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -5521,6 +5537,24 @@
     <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -5532,24 +5566,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5768,7 +5784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z994"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:N3"/>
     </sheetView>
   </sheetViews>
@@ -5836,22 +5852,22 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="24.75" customHeight="1">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="30"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="36"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -5866,22 +5882,22 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -5896,20 +5912,20 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -5924,20 +5940,20 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -5952,20 +5968,20 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -5980,20 +5996,20 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -6008,20 +6024,20 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -6036,22 +6052,22 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="24.75" customHeight="1">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="30"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="36"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -6066,22 +6082,22 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -6096,20 +6112,20 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -6124,20 +6140,20 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -6152,20 +6168,20 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -6180,22 +6196,22 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="24.75" customHeight="1">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="30"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="36"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
@@ -6213,21 +6229,21 @@
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -6245,21 +6261,21 @@
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -6277,21 +6293,21 @@
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
@@ -6309,21 +6325,21 @@
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -6341,21 +6357,21 @@
       <c r="A20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -6373,21 +6389,21 @@
       <c r="A21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -6405,21 +6421,21 @@
       <c r="A22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
@@ -6437,21 +6453,21 @@
       <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -6469,21 +6485,21 @@
       <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
@@ -6501,21 +6517,21 @@
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
@@ -6533,21 +6549,21 @@
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
@@ -33667,6 +33683,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="A4:N9"/>
+    <mergeCell ref="A10:N10"/>
+    <mergeCell ref="A11:N14"/>
+    <mergeCell ref="A15:N15"/>
     <mergeCell ref="B16:N16"/>
     <mergeCell ref="B17:N17"/>
     <mergeCell ref="B25:N25"/>
@@ -33678,11 +33699,6 @@
     <mergeCell ref="B22:N22"/>
     <mergeCell ref="B23:N23"/>
     <mergeCell ref="B24:N24"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="A4:N9"/>
-    <mergeCell ref="A10:N10"/>
-    <mergeCell ref="A11:N14"/>
-    <mergeCell ref="A15:N15"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -33692,9 +33708,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BC30"/>
+  <dimension ref="A1:BD30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="X19" sqref="X19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -33716,21 +33734,21 @@
     <col min="23" max="23" width="12.375" style="14" customWidth="1"/>
     <col min="24" max="24" width="6.75" style="14" customWidth="1"/>
     <col min="25" max="25" width="10" style="14" customWidth="1"/>
-    <col min="26" max="26" width="11.375" style="14" customWidth="1"/>
-    <col min="27" max="27" width="17.5" style="14" customWidth="1"/>
-    <col min="28" max="28" width="20.25" style="14" customWidth="1"/>
-    <col min="29" max="29" width="14.5" style="14" customWidth="1"/>
-    <col min="30" max="31" width="12.5" style="14" customWidth="1"/>
-    <col min="32" max="32" width="14" style="14" customWidth="1"/>
-    <col min="33" max="33" width="9.375" style="14" customWidth="1"/>
-    <col min="34" max="34" width="10.875" style="14" customWidth="1"/>
-    <col min="35" max="35" width="9.5" style="14" customWidth="1"/>
-    <col min="36" max="45" width="9.875" style="14" customWidth="1"/>
-    <col min="46" max="55" width="17.25" style="14" customWidth="1"/>
-    <col min="56" max="16384" width="11.25" style="14"/>
+    <col min="26" max="27" width="11.375" style="14" customWidth="1"/>
+    <col min="28" max="28" width="17.5" style="14" customWidth="1"/>
+    <col min="29" max="29" width="20.25" style="14" customWidth="1"/>
+    <col min="30" max="30" width="14.5" style="14" customWidth="1"/>
+    <col min="31" max="32" width="12.5" style="14" customWidth="1"/>
+    <col min="33" max="33" width="14" style="14" customWidth="1"/>
+    <col min="34" max="34" width="9.375" style="14" customWidth="1"/>
+    <col min="35" max="35" width="10.875" style="14" customWidth="1"/>
+    <col min="36" max="36" width="9.5" style="14" customWidth="1"/>
+    <col min="37" max="46" width="9.875" style="14" customWidth="1"/>
+    <col min="47" max="56" width="17.25" style="14" customWidth="1"/>
+    <col min="57" max="16384" width="11.25" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="69.75" customHeight="1" thickBot="1">
+    <row r="1" spans="1:56" ht="69.75" customHeight="1" thickBot="1">
       <c r="A1" s="16" t="s">
         <v>1066</v>
       </c>
@@ -33788,16 +33806,16 @@
       <c r="S1" s="16" t="s">
         <v>1084</v>
       </c>
-      <c r="T1" s="34" t="s">
+      <c r="T1" s="28" t="s">
         <v>1626</v>
       </c>
-      <c r="U1" s="34" t="s">
+      <c r="U1" s="28" t="s">
         <v>1627</v>
       </c>
-      <c r="V1" s="34" t="s">
+      <c r="V1" s="28" t="s">
         <v>1620</v>
       </c>
-      <c r="W1" s="34" t="s">
+      <c r="W1" s="28" t="s">
         <v>1628</v>
       </c>
       <c r="X1" s="16" t="s">
@@ -33810,94 +33828,97 @@
         <v>1088</v>
       </c>
       <c r="AA1" s="16" t="s">
+        <v>1630</v>
+      </c>
+      <c r="AB1" s="16" t="s">
         <v>1089</v>
       </c>
-      <c r="AB1" s="18" t="s">
+      <c r="AC1" s="18" t="s">
         <v>1090</v>
       </c>
-      <c r="AC1" s="19" t="s">
+      <c r="AD1" s="19" t="s">
         <v>1091</v>
       </c>
-      <c r="AD1" s="16" t="s">
+      <c r="AE1" s="16" t="s">
         <v>1092</v>
       </c>
-      <c r="AE1" s="16" t="s">
+      <c r="AF1" s="16" t="s">
         <v>1093</v>
       </c>
-      <c r="AF1" s="16" t="s">
+      <c r="AG1" s="16" t="s">
         <v>1094</v>
       </c>
-      <c r="AG1" s="16" t="s">
+      <c r="AH1" s="16" t="s">
         <v>1095</v>
       </c>
-      <c r="AH1" s="16" t="s">
+      <c r="AI1" s="16" t="s">
         <v>1096</v>
       </c>
-      <c r="AI1" s="16" t="s">
+      <c r="AJ1" s="16" t="s">
         <v>1097</v>
       </c>
-      <c r="AJ1" s="20" t="s">
+      <c r="AK1" s="20" t="s">
         <v>1098</v>
       </c>
-      <c r="AK1" s="21" t="s">
+      <c r="AL1" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="AL1" s="21" t="s">
+      <c r="AM1" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="AM1" s="21" t="s">
+      <c r="AN1" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="AN1" s="21" t="s">
+      <c r="AO1" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="AO1" s="20" t="s">
+      <c r="AP1" s="20" t="s">
         <v>1113</v>
       </c>
-      <c r="AP1" s="20" t="s">
+      <c r="AQ1" s="20" t="s">
         <v>1112</v>
       </c>
-      <c r="AQ1" s="21" t="s">
+      <c r="AR1" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="AR1" s="21" t="s">
+      <c r="AS1" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="AS1" s="21" t="s">
+      <c r="AT1" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="AT1" s="20" t="s">
+      <c r="AU1" s="20" t="s">
         <v>1119</v>
       </c>
-      <c r="AU1" s="21" t="s">
+      <c r="AV1" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="AV1" s="21" t="s">
+      <c r="AW1" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="AW1" s="21" t="s">
+      <c r="AX1" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="AX1" s="21" t="s">
+      <c r="AY1" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="AY1" s="21" t="s">
+      <c r="AZ1" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="AZ1" s="21" t="s">
+      <c r="BA1" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="BA1" s="21" t="s">
+      <c r="BB1" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="BB1" s="21" t="s">
+      <c r="BC1" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="BC1" s="21" t="s">
+      <c r="BD1" s="21" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:55" ht="16.5" customHeight="1" thickBot="1">
+    <row r="2" spans="1:56" ht="16.5" customHeight="1" thickBot="1">
       <c r="A2" s="17" t="s">
         <v>69</v>
       </c>
@@ -33976,8 +33997,8 @@
       <c r="Z2" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="AA2" s="17" t="s">
-        <v>69</v>
+      <c r="AA2" s="22" t="s">
+        <v>71</v>
       </c>
       <c r="AB2" s="17" t="s">
         <v>69</v>
@@ -33994,11 +34015,11 @@
       <c r="AF2" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="AG2" s="23" t="s">
+      <c r="AG2" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH2" s="23" t="s">
         <v>70</v>
-      </c>
-      <c r="AH2" s="17" t="s">
-        <v>69</v>
       </c>
       <c r="AI2" s="17" t="s">
         <v>69</v>
@@ -34006,8 +34027,8 @@
       <c r="AJ2" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="AK2" s="23" t="s">
-        <v>70</v>
+      <c r="AK2" s="17" t="s">
+        <v>69</v>
       </c>
       <c r="AL2" s="23" t="s">
         <v>70</v>
@@ -34063,8 +34084,11 @@
       <c r="BC2" s="23" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="3" spans="1:55" ht="16.5" customHeight="1">
+      <c r="BD2" s="23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:56" ht="16.5" customHeight="1">
       <c r="A3" s="24" t="s">
         <v>72</v>
       </c>
@@ -34129,7 +34153,7 @@
         <v>19</v>
       </c>
       <c r="W3" s="24" t="s">
-        <v>1104</v>
+        <v>1633</v>
       </c>
       <c r="X3" s="27" t="s">
         <v>1105</v>
@@ -34137,46 +34161,49 @@
       <c r="Y3" s="15" t="s">
         <v>1125</v>
       </c>
-      <c r="Z3" s="15" t="s">
-        <v>1123</v>
-      </c>
-      <c r="AA3" s="27" t="s">
+      <c r="Z3" s="24" t="s">
+        <v>1632</v>
+      </c>
+      <c r="AA3" s="24" t="s">
+        <v>1632</v>
+      </c>
+      <c r="AB3" s="27" t="s">
         <v>1089</v>
       </c>
-      <c r="AB3" s="27" t="s">
+      <c r="AC3" s="27" t="s">
         <v>1106</v>
       </c>
-      <c r="AC3" s="27" t="s">
+      <c r="AD3" s="27" t="s">
         <v>1107</v>
       </c>
-      <c r="AD3" s="27" t="s">
+      <c r="AE3" s="27" t="s">
         <v>1108</v>
       </c>
-      <c r="AE3" s="15" t="s">
+      <c r="AF3" s="15" t="s">
         <v>1109</v>
       </c>
-      <c r="AF3" s="15" t="s">
+      <c r="AG3" s="15" t="s">
         <v>1110</v>
       </c>
-      <c r="AG3" s="24" t="s">
+      <c r="AH3" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="AH3" s="15" t="s">
+      <c r="AI3" s="15" t="s">
         <v>1096</v>
       </c>
-      <c r="AI3" s="15" t="s">
+      <c r="AJ3" s="15" t="s">
         <v>1111</v>
       </c>
-      <c r="AJ3" s="15" t="s">
+      <c r="AK3" s="15" t="s">
         <v>1120</v>
       </c>
-      <c r="AK3" s="15"/>
       <c r="AL3" s="15"/>
       <c r="AM3" s="15"/>
       <c r="AN3" s="15"/>
       <c r="AO3" s="15"/>
-    </row>
-    <row r="4" spans="1:55" ht="16.5" customHeight="1">
+      <c r="AP3" s="15"/>
+    </row>
+    <row r="4" spans="1:56" ht="16.5" customHeight="1">
       <c r="A4" s="24" t="s">
         <v>75</v>
       </c>
@@ -34218,38 +34245,38 @@
       <c r="X4" s="27" t="s">
         <v>1625</v>
       </c>
-      <c r="AA4" s="27" t="s">
+      <c r="AB4" s="27" t="s">
         <v>1089</v>
       </c>
-      <c r="AB4" s="27" t="s">
+      <c r="AC4" s="27" t="s">
         <v>1106</v>
       </c>
-      <c r="AC4" s="27" t="s">
+      <c r="AD4" s="27" t="s">
         <v>1107</v>
       </c>
-      <c r="AD4" s="27" t="s">
+      <c r="AE4" s="27" t="s">
         <v>1108</v>
       </c>
-      <c r="AE4" s="15" t="s">
+      <c r="AF4" s="15" t="s">
         <v>1109</v>
       </c>
-      <c r="AF4" s="15" t="s">
+      <c r="AG4" s="15" t="s">
         <v>1110</v>
       </c>
-      <c r="AG4" s="24" t="s">
+      <c r="AH4" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="AH4" s="15" t="s">
+      <c r="AI4" s="15" t="s">
         <v>1096</v>
       </c>
-      <c r="AI4" s="15" t="s">
+      <c r="AJ4" s="15" t="s">
         <v>1111</v>
       </c>
-      <c r="AJ4" s="15" t="s">
+      <c r="AK4" s="15" t="s">
         <v>1120</v>
       </c>
     </row>
-    <row r="5" spans="1:55" ht="16.5" customHeight="1">
+    <row r="5" spans="1:56" ht="16.5" customHeight="1">
       <c r="A5" s="24" t="s">
         <v>77</v>
       </c>
@@ -34258,9 +34285,9 @@
       <c r="T5" s="26"/>
       <c r="V5" s="26"/>
       <c r="X5" s="27"/>
-      <c r="AG5" s="24"/>
-    </row>
-    <row r="6" spans="1:55" ht="16.5" customHeight="1">
+      <c r="AH5" s="24"/>
+    </row>
+    <row r="6" spans="1:56" ht="16.5" customHeight="1">
       <c r="A6" s="24" t="s">
         <v>78</v>
       </c>
@@ -34269,36 +34296,36 @@
       <c r="T6" s="26"/>
       <c r="V6" s="26"/>
       <c r="X6" s="27"/>
-      <c r="AG6" s="24"/>
-    </row>
-    <row r="7" spans="1:55" ht="16.5" customHeight="1">
+      <c r="AH6" s="24"/>
+    </row>
+    <row r="7" spans="1:56" ht="16.5" customHeight="1">
       <c r="A7" s="24"/>
       <c r="B7" s="24"/>
       <c r="I7" s="24"/>
       <c r="T7" s="26"/>
       <c r="V7" s="26"/>
       <c r="X7" s="27"/>
-      <c r="AG7" s="24"/>
-    </row>
-    <row r="8" spans="1:55" ht="16.5" customHeight="1">
+      <c r="AH7" s="24"/>
+    </row>
+    <row r="8" spans="1:56" ht="16.5" customHeight="1">
       <c r="A8" s="24"/>
       <c r="B8" s="24"/>
       <c r="I8" s="24"/>
       <c r="T8" s="26"/>
       <c r="V8" s="26"/>
       <c r="X8" s="27"/>
-      <c r="AG8" s="24"/>
-    </row>
-    <row r="9" spans="1:55" ht="16.5" customHeight="1">
+      <c r="AH8" s="24"/>
+    </row>
+    <row r="9" spans="1:56" ht="16.5" customHeight="1">
       <c r="A9" s="24"/>
       <c r="B9" s="24"/>
       <c r="I9" s="24"/>
       <c r="T9" s="26"/>
       <c r="V9" s="26"/>
       <c r="X9" s="27"/>
-      <c r="AG9" s="24"/>
-    </row>
-    <row r="10" spans="1:55" ht="15" customHeight="1">
+      <c r="AH9" s="24"/>
+    </row>
+    <row r="10" spans="1:56" ht="15" customHeight="1">
       <c r="A10" s="24"/>
       <c r="B10" s="24"/>
       <c r="I10" s="24"/>
@@ -34306,7 +34333,7 @@
       <c r="V10" s="26"/>
       <c r="X10" s="27"/>
     </row>
-    <row r="11" spans="1:55" ht="15" customHeight="1">
+    <row r="11" spans="1:56" ht="15" customHeight="1">
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
       <c r="I11" s="24"/>
@@ -34314,7 +34341,7 @@
       <c r="V11" s="26"/>
       <c r="X11" s="27"/>
     </row>
-    <row r="12" spans="1:55" ht="15" customHeight="1">
+    <row r="12" spans="1:56" ht="15" customHeight="1">
       <c r="A12" s="24"/>
       <c r="B12" s="24"/>
       <c r="I12" s="24"/>
@@ -34322,7 +34349,7 @@
       <c r="V12" s="26"/>
       <c r="X12" s="27"/>
     </row>
-    <row r="13" spans="1:55" ht="15" customHeight="1">
+    <row r="13" spans="1:56" ht="15" customHeight="1">
       <c r="A13" s="24"/>
       <c r="B13" s="24"/>
       <c r="I13" s="24"/>
@@ -34330,7 +34357,7 @@
       <c r="V13" s="26"/>
       <c r="X13" s="27"/>
     </row>
-    <row r="14" spans="1:55" ht="15" customHeight="1">
+    <row r="14" spans="1:56" ht="15" customHeight="1">
       <c r="A14" s="24"/>
       <c r="B14" s="24"/>
       <c r="I14" s="24"/>
@@ -34338,7 +34365,7 @@
       <c r="V14" s="26"/>
       <c r="X14" s="27"/>
     </row>
-    <row r="15" spans="1:55" ht="15" customHeight="1">
+    <row r="15" spans="1:56" ht="15" customHeight="1">
       <c r="A15" s="24"/>
       <c r="B15" s="24"/>
       <c r="I15" s="24"/>
@@ -34346,7 +34373,7 @@
       <c r="V15" s="26"/>
       <c r="X15" s="27"/>
     </row>
-    <row r="16" spans="1:55" ht="15" customHeight="1">
+    <row r="16" spans="1:56" ht="15" customHeight="1">
       <c r="A16" s="24"/>
       <c r="B16" s="24"/>
       <c r="I16" s="24"/>
@@ -34477,7 +34504,7 @@
           <x14:formula1>
             <xm:f>對照表9527!$B$4:$F$4</xm:f>
           </x14:formula1>
-          <xm:sqref>AG3:AG9</xm:sqref>
+          <xm:sqref>AH3:AH9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
@@ -34517,9 +34544,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:BB1000"/>
+  <dimension ref="A1:BC1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AB19" sqref="AB19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -34541,20 +34570,20 @@
     <col min="23" max="23" width="12.375" style="14" customWidth="1"/>
     <col min="24" max="24" width="6.75" style="14" customWidth="1"/>
     <col min="25" max="25" width="10" style="14" customWidth="1"/>
-    <col min="26" max="26" width="11.375" style="14" customWidth="1"/>
-    <col min="27" max="27" width="17.5" style="14" customWidth="1"/>
-    <col min="28" max="28" width="20.25" style="14" customWidth="1"/>
-    <col min="29" max="29" width="14.5" style="14" customWidth="1"/>
-    <col min="30" max="31" width="12.5" style="14" customWidth="1"/>
-    <col min="32" max="32" width="12" style="14" customWidth="1"/>
-    <col min="33" max="33" width="10.875" style="14" customWidth="1"/>
-    <col min="34" max="34" width="12.5" style="14" customWidth="1"/>
-    <col min="35" max="44" width="9.875" style="14" customWidth="1"/>
-    <col min="45" max="54" width="17.25" style="14" customWidth="1"/>
-    <col min="55" max="16384" width="11.25" style="14"/>
+    <col min="26" max="27" width="11.375" style="14" customWidth="1"/>
+    <col min="28" max="28" width="17.5" style="14" customWidth="1"/>
+    <col min="29" max="29" width="20.25" style="14" customWidth="1"/>
+    <col min="30" max="30" width="14.5" style="14" customWidth="1"/>
+    <col min="31" max="32" width="12.5" style="14" customWidth="1"/>
+    <col min="33" max="33" width="12" style="14" customWidth="1"/>
+    <col min="34" max="34" width="10.875" style="14" customWidth="1"/>
+    <col min="35" max="35" width="12.5" style="14" customWidth="1"/>
+    <col min="36" max="45" width="9.875" style="14" customWidth="1"/>
+    <col min="46" max="55" width="17.25" style="14" customWidth="1"/>
+    <col min="56" max="16384" width="11.25" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="69.75" customHeight="1" thickBot="1">
+    <row r="1" spans="1:55" ht="69.75" customHeight="1" thickBot="1">
       <c r="A1" s="16" t="s">
         <v>27</v>
       </c>
@@ -34612,16 +34641,16 @@
       <c r="S1" s="16" t="s">
         <v>1084</v>
       </c>
-      <c r="T1" s="34" t="s">
+      <c r="T1" s="28" t="s">
         <v>1618</v>
       </c>
-      <c r="U1" s="34" t="s">
+      <c r="U1" s="28" t="s">
         <v>1619</v>
       </c>
-      <c r="V1" s="34" t="s">
+      <c r="V1" s="28" t="s">
         <v>1620</v>
       </c>
-      <c r="W1" s="34" t="s">
+      <c r="W1" s="28" t="s">
         <v>1621</v>
       </c>
       <c r="X1" s="16" t="s">
@@ -34634,91 +34663,94 @@
         <v>48</v>
       </c>
       <c r="AA1" s="16" t="s">
+        <v>1630</v>
+      </c>
+      <c r="AB1" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="AB1" s="18" t="s">
+      <c r="AC1" s="18" t="s">
         <v>1114</v>
       </c>
-      <c r="AC1" s="16" t="s">
+      <c r="AD1" s="16" t="s">
         <v>1115</v>
       </c>
-      <c r="AD1" s="16" t="s">
+      <c r="AE1" s="16" t="s">
         <v>1116</v>
       </c>
-      <c r="AE1" s="16" t="s">
+      <c r="AF1" s="16" t="s">
         <v>1117</v>
       </c>
-      <c r="AF1" s="16" t="s">
+      <c r="AG1" s="16" t="s">
         <v>1118</v>
       </c>
-      <c r="AG1" s="16" t="s">
+      <c r="AH1" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="AH1" s="16" t="s">
+      <c r="AI1" s="16" t="s">
         <v>1097</v>
       </c>
-      <c r="AI1" s="20" t="s">
+      <c r="AJ1" s="20" t="s">
         <v>1098</v>
       </c>
-      <c r="AJ1" s="21" t="s">
+      <c r="AK1" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="AK1" s="21" t="s">
+      <c r="AL1" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="AL1" s="21" t="s">
+      <c r="AM1" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="AM1" s="21" t="s">
+      <c r="AN1" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="AN1" s="20" t="s">
+      <c r="AO1" s="20" t="s">
         <v>1113</v>
       </c>
-      <c r="AO1" s="20" t="s">
+      <c r="AP1" s="20" t="s">
         <v>1112</v>
       </c>
-      <c r="AP1" s="21" t="s">
+      <c r="AQ1" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="AQ1" s="21" t="s">
+      <c r="AR1" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="AR1" s="21" t="s">
+      <c r="AS1" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="AS1" s="21" t="s">
+      <c r="AT1" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="AT1" s="21" t="s">
+      <c r="AU1" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="AU1" s="21" t="s">
+      <c r="AV1" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="AV1" s="21" t="s">
+      <c r="AW1" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="AW1" s="21" t="s">
+      <c r="AX1" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="AX1" s="21" t="s">
+      <c r="AY1" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="AY1" s="21" t="s">
+      <c r="AZ1" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="AZ1" s="21" t="s">
+      <c r="BA1" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="BA1" s="21" t="s">
+      <c r="BB1" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="BB1" s="21" t="s">
+      <c r="BC1" s="21" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:54" ht="16.5" customHeight="1" thickBot="1">
+    <row r="2" spans="1:55" ht="16.5" customHeight="1" thickBot="1">
       <c r="A2" s="17" t="s">
         <v>69</v>
       </c>
@@ -34797,11 +34829,11 @@
       <c r="Z2" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="AA2" s="17" t="s">
+      <c r="AA2" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB2" s="17" t="s">
         <v>69</v>
-      </c>
-      <c r="AB2" s="22" t="s">
-        <v>70</v>
       </c>
       <c r="AC2" s="22" t="s">
         <v>70</v>
@@ -34821,11 +34853,11 @@
       <c r="AH2" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="AI2" s="17" t="s">
+      <c r="AI2" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ2" s="17" t="s">
         <v>69</v>
-      </c>
-      <c r="AJ2" s="23" t="s">
-        <v>70</v>
       </c>
       <c r="AK2" s="23" t="s">
         <v>70</v>
@@ -34881,8 +34913,11 @@
       <c r="BB2" s="23" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="3" spans="1:54" ht="16.5" customHeight="1">
+      <c r="BC2" s="23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:55" ht="16.5" customHeight="1">
       <c r="A3" s="24" t="s">
         <v>72</v>
       </c>
@@ -34937,38 +34972,41 @@
       <c r="Y3" s="15" t="s">
         <v>1129</v>
       </c>
-      <c r="Z3" s="15" t="s">
+      <c r="Z3" s="24" t="s">
+        <v>1631</v>
+      </c>
+      <c r="AA3" s="15" t="s">
         <v>1123</v>
       </c>
-      <c r="AA3" s="27" t="s">
+      <c r="AB3" s="27" t="s">
         <v>1089</v>
       </c>
-      <c r="AB3" s="25" t="s">
+      <c r="AC3" s="25" t="s">
         <v>1114</v>
       </c>
-      <c r="AC3" s="25" t="s">
+      <c r="AD3" s="25" t="s">
         <v>1115</v>
       </c>
-      <c r="AD3" s="25" t="s">
+      <c r="AE3" s="25" t="s">
         <v>1116</v>
       </c>
-      <c r="AE3" s="25" t="s">
+      <c r="AF3" s="25" t="s">
         <v>1117</v>
       </c>
-      <c r="AF3" s="25" t="s">
+      <c r="AG3" s="25" t="s">
         <v>1118</v>
       </c>
-      <c r="AG3" s="25" t="s">
+      <c r="AH3" s="25" t="s">
         <v>1096</v>
       </c>
-      <c r="AH3" s="25" t="s">
+      <c r="AI3" s="25" t="s">
         <v>1097</v>
       </c>
-      <c r="AI3" s="15" t="s">
+      <c r="AJ3" s="15" t="s">
         <v>1120</v>
       </c>
     </row>
-    <row r="4" spans="1:54" ht="16.5" customHeight="1">
+    <row r="4" spans="1:55" ht="16.5" customHeight="1">
       <c r="A4" s="24" t="s">
         <v>75</v>
       </c>
@@ -34981,7 +35019,7 @@
       <c r="V4" s="26"/>
       <c r="X4" s="27"/>
     </row>
-    <row r="5" spans="1:54" ht="16.5" customHeight="1">
+    <row r="5" spans="1:55" ht="16.5" customHeight="1">
       <c r="A5" s="24" t="s">
         <v>77</v>
       </c>
@@ -34991,7 +35029,7 @@
       <c r="V5" s="26"/>
       <c r="X5" s="27"/>
     </row>
-    <row r="6" spans="1:54" ht="16.5" customHeight="1">
+    <row r="6" spans="1:55" ht="16.5" customHeight="1">
       <c r="A6" s="24"/>
       <c r="B6" s="24"/>
       <c r="I6" s="24"/>
@@ -34999,7 +35037,7 @@
       <c r="V6" s="26"/>
       <c r="X6" s="27"/>
     </row>
-    <row r="7" spans="1:54" ht="16.5" customHeight="1">
+    <row r="7" spans="1:55" ht="16.5" customHeight="1">
       <c r="A7" s="24"/>
       <c r="B7" s="24"/>
       <c r="I7" s="24"/>
@@ -35007,7 +35045,7 @@
       <c r="V7" s="26"/>
       <c r="X7" s="27"/>
     </row>
-    <row r="8" spans="1:54" ht="16.5" customHeight="1">
+    <row r="8" spans="1:55" ht="16.5" customHeight="1">
       <c r="A8" s="24"/>
       <c r="B8" s="24"/>
       <c r="I8" s="24"/>
@@ -35015,7 +35053,7 @@
       <c r="V8" s="26"/>
       <c r="X8" s="27"/>
     </row>
-    <row r="9" spans="1:54" ht="16.5" customHeight="1">
+    <row r="9" spans="1:55" ht="16.5" customHeight="1">
       <c r="A9" s="24"/>
       <c r="B9" s="24"/>
       <c r="I9" s="24"/>
@@ -35023,7 +35061,7 @@
       <c r="V9" s="26"/>
       <c r="X9" s="27"/>
     </row>
-    <row r="10" spans="1:54" ht="16.5" customHeight="1">
+    <row r="10" spans="1:55" ht="16.5" customHeight="1">
       <c r="A10" s="24"/>
       <c r="B10" s="24"/>
       <c r="I10" s="24"/>
@@ -35031,7 +35069,7 @@
       <c r="V10" s="26"/>
       <c r="X10" s="27"/>
     </row>
-    <row r="11" spans="1:54" ht="16.5" customHeight="1">
+    <row r="11" spans="1:55" ht="16.5" customHeight="1">
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
       <c r="I11" s="24"/>
@@ -35039,7 +35077,7 @@
       <c r="V11" s="26"/>
       <c r="X11" s="27"/>
     </row>
-    <row r="12" spans="1:54" ht="16.5" customHeight="1">
+    <row r="12" spans="1:55" ht="16.5" customHeight="1">
       <c r="A12" s="24"/>
       <c r="B12" s="24"/>
       <c r="I12" s="24"/>
@@ -35047,7 +35085,7 @@
       <c r="V12" s="26"/>
       <c r="X12" s="27"/>
     </row>
-    <row r="13" spans="1:54" ht="16.5" customHeight="1">
+    <row r="13" spans="1:55" ht="16.5" customHeight="1">
       <c r="A13" s="24"/>
       <c r="B13" s="24"/>
       <c r="I13" s="24"/>
@@ -35055,7 +35093,7 @@
       <c r="V13" s="26"/>
       <c r="X13" s="27"/>
     </row>
-    <row r="14" spans="1:54" ht="16.5" customHeight="1">
+    <row r="14" spans="1:55" ht="16.5" customHeight="1">
       <c r="A14" s="24"/>
       <c r="B14" s="24"/>
       <c r="I14" s="24"/>
@@ -35063,7 +35101,7 @@
       <c r="V14" s="26"/>
       <c r="X14" s="27"/>
     </row>
-    <row r="15" spans="1:54" ht="16.5" customHeight="1">
+    <row r="15" spans="1:55" ht="16.5" customHeight="1">
       <c r="A15" s="24"/>
       <c r="B15" s="24"/>
       <c r="I15" s="24"/>
@@ -35071,7 +35109,7 @@
       <c r="V15" s="26"/>
       <c r="X15" s="27"/>
     </row>
-    <row r="16" spans="1:54" ht="16.5" customHeight="1">
+    <row r="16" spans="1:55" ht="16.5" customHeight="1">
       <c r="A16" s="24"/>
       <c r="B16" s="24"/>
       <c r="I16" s="24"/>
@@ -57866,41 +57904,41 @@
   <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="29" t="s">
         <v>1623</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="31" t="s">
         <v>1624</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="29" t="s">
         <v>1085</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="31" t="s">
         <v>1105</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="29" t="s">
         <v>1124</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="30" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="30" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="30" t="s">
         <v>45</v>
       </c>
     </row>

--- a/public/files/提品匯入範例.xlsx
+++ b/public/files/提品匯入範例.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\f4564\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\cec-scm-mgt\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B54C80-C0A5-48AD-892B-969F4415639F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF7A4B1-E2A8-41C6-A919-E3B9A5484A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="功能說明" sheetId="1" r:id="rId1"/>
@@ -29,8 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
@@ -4954,10 +4952,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>請輸入商品完整說明文字</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>請輸入產品成份及食品添加物 文字</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -5170,6 +5164,10 @@
   </si>
   <si>
     <t>請輸入商品高度，以cm為單位，請輸入數字</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>請輸入商品完整說明文字（請使用HTML語法執行文字排版）</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -5741,7 +5739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -5799,7 +5797,7 @@
     </row>
     <row r="4" spans="1:12" ht="176.25" customHeight="1" thickBot="1">
       <c r="A4" s="24" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -5824,7 +5822,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BD30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AE8" sqref="AE8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -5942,7 +5942,7 @@
         <v>1064</v>
       </c>
       <c r="AD1" s="21" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="AE1" s="21" t="s">
         <v>1065</v>
@@ -5963,7 +5963,7 @@
         <v>1576</v>
       </c>
       <c r="AK1" s="21" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="AL1" s="21" t="s">
         <v>1597</v>
@@ -5978,10 +5978,10 @@
         <v>1600</v>
       </c>
       <c r="AP1" s="21" t="s">
+        <v>1638</v>
+      </c>
+      <c r="AQ1" s="21" t="s">
         <v>1639</v>
-      </c>
-      <c r="AQ1" s="21" t="s">
-        <v>1640</v>
       </c>
       <c r="AR1" s="21" t="s">
         <v>1601</v>
@@ -5993,7 +5993,7 @@
         <v>1603</v>
       </c>
       <c r="AU1" s="21" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="AV1" s="21" t="s">
         <v>1604</v>
@@ -6195,172 +6195,172 @@
     </row>
     <row r="3" spans="1:56" s="16" customFormat="1" ht="210" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="16" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>1619</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="C3" s="16" t="s">
         <v>1620</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="D3" s="16" t="s">
         <v>1621</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="E3" s="16" t="s">
+        <v>1641</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>1622</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>1642</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="H3" s="16" t="s">
         <v>1623</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="I3" s="16" t="s">
+        <v>1624</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>1625</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>1626</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>1661</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>1662</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>1663</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>1627</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>1628</v>
+      </c>
+      <c r="Q3" s="16" t="s">
+        <v>1629</v>
+      </c>
+      <c r="R3" s="16" t="s">
+        <v>1630</v>
+      </c>
+      <c r="S3" s="16" t="s">
         <v>1643</v>
       </c>
-      <c r="H3" s="16" t="s">
-        <v>1624</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>1625</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>1626</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>1627</v>
-      </c>
-      <c r="L3" s="16" t="s">
-        <v>1662</v>
-      </c>
-      <c r="M3" s="16" t="s">
-        <v>1663</v>
-      </c>
-      <c r="N3" s="16" t="s">
-        <v>1664</v>
-      </c>
-      <c r="O3" s="16" t="s">
-        <v>1628</v>
-      </c>
-      <c r="P3" s="16" t="s">
-        <v>1629</v>
-      </c>
-      <c r="Q3" s="16" t="s">
-        <v>1630</v>
-      </c>
-      <c r="R3" s="16" t="s">
+      <c r="T3" s="16" t="s">
         <v>1631</v>
       </c>
-      <c r="S3" s="16" t="s">
-        <v>1644</v>
-      </c>
-      <c r="T3" s="16" t="s">
+      <c r="U3" s="16" t="s">
         <v>1632</v>
       </c>
-      <c r="U3" s="16" t="s">
+      <c r="V3" s="16" t="s">
         <v>1633</v>
       </c>
-      <c r="V3" s="16" t="s">
+      <c r="W3" s="16" t="s">
         <v>1634</v>
       </c>
-      <c r="W3" s="16" t="s">
+      <c r="X3" s="16" t="s">
         <v>1635</v>
-      </c>
-      <c r="X3" s="16" t="s">
-        <v>1636</v>
       </c>
       <c r="Y3" s="16" t="s">
         <v>1614</v>
       </c>
       <c r="Z3" s="16" t="s">
+        <v>1659</v>
+      </c>
+      <c r="AA3" s="16" t="s">
         <v>1660</v>
       </c>
-      <c r="AA3" s="16" t="s">
-        <v>1661</v>
-      </c>
       <c r="AB3" s="16" t="s">
+        <v>1664</v>
+      </c>
+      <c r="AC3" s="16" t="s">
         <v>1615</v>
       </c>
-      <c r="AC3" s="16" t="s">
+      <c r="AD3" s="16" t="s">
         <v>1616</v>
       </c>
-      <c r="AD3" s="16" t="s">
+      <c r="AE3" s="16" t="s">
         <v>1617</v>
       </c>
-      <c r="AE3" s="16" t="s">
-        <v>1618</v>
-      </c>
       <c r="AF3" s="16" t="s">
+        <v>1644</v>
+      </c>
+      <c r="AG3" s="16" t="s">
+        <v>1646</v>
+      </c>
+      <c r="AH3" s="16" t="s">
         <v>1645</v>
       </c>
-      <c r="AG3" s="16" t="s">
+      <c r="AI3" s="16" t="s">
         <v>1647</v>
       </c>
-      <c r="AH3" s="16" t="s">
-        <v>1646</v>
-      </c>
-      <c r="AI3" s="16" t="s">
+      <c r="AJ3" s="16" t="s">
         <v>1648</v>
       </c>
-      <c r="AJ3" s="16" t="s">
+      <c r="AK3" s="16" t="s">
         <v>1649</v>
       </c>
-      <c r="AK3" s="16" t="s">
+      <c r="AL3" s="16" t="s">
         <v>1650</v>
       </c>
-      <c r="AL3" s="16" t="s">
-        <v>1651</v>
-      </c>
       <c r="AM3" s="16" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="AN3" s="16" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="AO3" s="16" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="AP3" s="16" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="AQ3" s="16" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="AR3" s="16" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="AS3" s="16" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="AT3" s="16" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="AU3" s="25" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="AV3" s="25" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="AW3" s="25" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="AX3" s="25" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="AY3" s="25" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="AZ3" s="25" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="BA3" s="25" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="BB3" s="25" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="BC3" s="25" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="BD3" s="25" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="4" spans="1:56" ht="16.5" customHeight="1"/>
@@ -6443,7 +6443,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BC30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AD7" sqref="AD7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -6578,7 +6580,7 @@
         <v>1070</v>
       </c>
       <c r="AJ1" s="21" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="AK1" s="21" t="s">
         <v>27</v>
@@ -6593,10 +6595,10 @@
         <v>30</v>
       </c>
       <c r="AO1" s="21" t="s">
+        <v>1638</v>
+      </c>
+      <c r="AP1" s="21" t="s">
         <v>1639</v>
-      </c>
-      <c r="AP1" s="21" t="s">
-        <v>1640</v>
       </c>
       <c r="AQ1" s="21" t="s">
         <v>31</v>
@@ -6819,13 +6821,13 @@
         <v>1580</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>1581</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="H3" s="16" t="s">
         <v>1582</v>
@@ -6840,13 +6842,13 @@
         <v>1585</v>
       </c>
       <c r="L3" s="16" t="s">
+        <v>1661</v>
+      </c>
+      <c r="M3" s="16" t="s">
         <v>1662</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="N3" s="16" t="s">
         <v>1663</v>
-      </c>
-      <c r="N3" s="16" t="s">
-        <v>1664</v>
       </c>
       <c r="O3" s="16" t="s">
         <v>1586</v>
@@ -6882,94 +6884,94 @@
         <v>1596</v>
       </c>
       <c r="Z3" s="16" t="s">
+        <v>1659</v>
+      </c>
+      <c r="AA3" s="16" t="s">
         <v>1660</v>
       </c>
-      <c r="AA3" s="16" t="s">
-        <v>1661</v>
-      </c>
       <c r="AB3" s="16" t="s">
-        <v>1615</v>
+        <v>1664</v>
       </c>
       <c r="AC3" s="16" t="s">
+        <v>1651</v>
+      </c>
+      <c r="AD3" s="16" t="s">
         <v>1652</v>
       </c>
-      <c r="AD3" s="16" t="s">
+      <c r="AE3" s="16" t="s">
         <v>1653</v>
       </c>
-      <c r="AE3" s="16" t="s">
+      <c r="AF3" s="16" t="s">
         <v>1654</v>
       </c>
-      <c r="AF3" s="16" t="s">
+      <c r="AG3" s="16" t="s">
         <v>1655</v>
       </c>
-      <c r="AG3" s="16" t="s">
+      <c r="AH3" s="16" t="s">
+        <v>1647</v>
+      </c>
+      <c r="AI3" s="16" t="s">
         <v>1656</v>
       </c>
-      <c r="AH3" s="16" t="s">
-        <v>1648</v>
-      </c>
-      <c r="AI3" s="16" t="s">
+      <c r="AJ3" s="16" t="s">
+        <v>1649</v>
+      </c>
+      <c r="AK3" s="16" t="s">
+        <v>1650</v>
+      </c>
+      <c r="AL3" s="16" t="s">
+        <v>1650</v>
+      </c>
+      <c r="AM3" s="16" t="s">
+        <v>1650</v>
+      </c>
+      <c r="AN3" s="16" t="s">
+        <v>1650</v>
+      </c>
+      <c r="AO3" s="16" t="s">
+        <v>1650</v>
+      </c>
+      <c r="AP3" s="16" t="s">
+        <v>1650</v>
+      </c>
+      <c r="AQ3" s="16" t="s">
+        <v>1650</v>
+      </c>
+      <c r="AR3" s="16" t="s">
+        <v>1650</v>
+      </c>
+      <c r="AS3" s="16" t="s">
+        <v>1650</v>
+      </c>
+      <c r="AT3" s="25" t="s">
         <v>1657</v>
       </c>
-      <c r="AJ3" s="16" t="s">
-        <v>1650</v>
-      </c>
-      <c r="AK3" s="16" t="s">
-        <v>1651</v>
-      </c>
-      <c r="AL3" s="16" t="s">
-        <v>1651</v>
-      </c>
-      <c r="AM3" s="16" t="s">
-        <v>1651</v>
-      </c>
-      <c r="AN3" s="16" t="s">
-        <v>1651</v>
-      </c>
-      <c r="AO3" s="16" t="s">
-        <v>1651</v>
-      </c>
-      <c r="AP3" s="16" t="s">
-        <v>1651</v>
-      </c>
-      <c r="AQ3" s="16" t="s">
-        <v>1651</v>
-      </c>
-      <c r="AR3" s="16" t="s">
-        <v>1651</v>
-      </c>
-      <c r="AS3" s="16" t="s">
-        <v>1651</v>
-      </c>
-      <c r="AT3" s="25" t="s">
-        <v>1658</v>
-      </c>
       <c r="AU3" s="25" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="AV3" s="25" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="AW3" s="25" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="AX3" s="25" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="AY3" s="25" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="AZ3" s="25" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="BA3" s="25" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="BB3" s="25" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="BC3" s="25" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="4" spans="1:55" ht="16.5" customHeight="1"/>

--- a/public/files/提品匯入範例.xlsx
+++ b/public/files/提品匯入範例.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\cec-scm-mgt\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF7A4B1-E2A8-41C6-A919-E3B9A5484A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170DE9FA-EA68-4AC3-8C5B-C5011EDBD182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2498" yWindow="1575" windowWidth="16904" windowHeight="10185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="功能說明" sheetId="1" r:id="rId1"/>
@@ -5739,7 +5739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -6443,7 +6443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BC30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+    <sheetView topLeftCell="Y1" workbookViewId="0">
       <selection activeCell="AD7" sqref="AD7"/>
     </sheetView>
   </sheetViews>

--- a/public/files/提品匯入範例.xlsx
+++ b/public/files/提品匯入範例.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\f4564\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\cec-scm-mgt\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B54C80-C0A5-48AD-892B-969F4415639F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170DE9FA-EA68-4AC3-8C5B-C5011EDBD182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2498" yWindow="1575" windowWidth="16904" windowHeight="10185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="功能說明" sheetId="1" r:id="rId1"/>
@@ -29,8 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
@@ -4954,10 +4952,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>請輸入商品完整說明文字</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>請輸入產品成份及食品添加物 文字</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -5170,6 +5164,10 @@
   </si>
   <si>
     <t>請輸入商品高度，以cm為單位，請輸入數字</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>請輸入商品完整說明文字（請使用HTML語法執行文字排版）</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -5799,7 +5797,7 @@
     </row>
     <row r="4" spans="1:12" ht="176.25" customHeight="1" thickBot="1">
       <c r="A4" s="24" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -5824,7 +5822,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BD30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AE8" sqref="AE8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -5942,7 +5942,7 @@
         <v>1064</v>
       </c>
       <c r="AD1" s="21" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="AE1" s="21" t="s">
         <v>1065</v>
@@ -5963,7 +5963,7 @@
         <v>1576</v>
       </c>
       <c r="AK1" s="21" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="AL1" s="21" t="s">
         <v>1597</v>
@@ -5978,10 +5978,10 @@
         <v>1600</v>
       </c>
       <c r="AP1" s="21" t="s">
+        <v>1638</v>
+      </c>
+      <c r="AQ1" s="21" t="s">
         <v>1639</v>
-      </c>
-      <c r="AQ1" s="21" t="s">
-        <v>1640</v>
       </c>
       <c r="AR1" s="21" t="s">
         <v>1601</v>
@@ -5993,7 +5993,7 @@
         <v>1603</v>
       </c>
       <c r="AU1" s="21" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="AV1" s="21" t="s">
         <v>1604</v>
@@ -6195,172 +6195,172 @@
     </row>
     <row r="3" spans="1:56" s="16" customFormat="1" ht="210" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="16" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>1619</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="C3" s="16" t="s">
         <v>1620</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="D3" s="16" t="s">
         <v>1621</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="E3" s="16" t="s">
+        <v>1641</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>1622</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>1642</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="H3" s="16" t="s">
         <v>1623</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="I3" s="16" t="s">
+        <v>1624</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>1625</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>1626</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>1661</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>1662</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>1663</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>1627</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>1628</v>
+      </c>
+      <c r="Q3" s="16" t="s">
+        <v>1629</v>
+      </c>
+      <c r="R3" s="16" t="s">
+        <v>1630</v>
+      </c>
+      <c r="S3" s="16" t="s">
         <v>1643</v>
       </c>
-      <c r="H3" s="16" t="s">
-        <v>1624</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>1625</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>1626</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>1627</v>
-      </c>
-      <c r="L3" s="16" t="s">
-        <v>1662</v>
-      </c>
-      <c r="M3" s="16" t="s">
-        <v>1663</v>
-      </c>
-      <c r="N3" s="16" t="s">
-        <v>1664</v>
-      </c>
-      <c r="O3" s="16" t="s">
-        <v>1628</v>
-      </c>
-      <c r="P3" s="16" t="s">
-        <v>1629</v>
-      </c>
-      <c r="Q3" s="16" t="s">
-        <v>1630</v>
-      </c>
-      <c r="R3" s="16" t="s">
+      <c r="T3" s="16" t="s">
         <v>1631</v>
       </c>
-      <c r="S3" s="16" t="s">
-        <v>1644</v>
-      </c>
-      <c r="T3" s="16" t="s">
+      <c r="U3" s="16" t="s">
         <v>1632</v>
       </c>
-      <c r="U3" s="16" t="s">
+      <c r="V3" s="16" t="s">
         <v>1633</v>
       </c>
-      <c r="V3" s="16" t="s">
+      <c r="W3" s="16" t="s">
         <v>1634</v>
       </c>
-      <c r="W3" s="16" t="s">
+      <c r="X3" s="16" t="s">
         <v>1635</v>
-      </c>
-      <c r="X3" s="16" t="s">
-        <v>1636</v>
       </c>
       <c r="Y3" s="16" t="s">
         <v>1614</v>
       </c>
       <c r="Z3" s="16" t="s">
+        <v>1659</v>
+      </c>
+      <c r="AA3" s="16" t="s">
         <v>1660</v>
       </c>
-      <c r="AA3" s="16" t="s">
-        <v>1661</v>
-      </c>
       <c r="AB3" s="16" t="s">
+        <v>1664</v>
+      </c>
+      <c r="AC3" s="16" t="s">
         <v>1615</v>
       </c>
-      <c r="AC3" s="16" t="s">
+      <c r="AD3" s="16" t="s">
         <v>1616</v>
       </c>
-      <c r="AD3" s="16" t="s">
+      <c r="AE3" s="16" t="s">
         <v>1617</v>
       </c>
-      <c r="AE3" s="16" t="s">
-        <v>1618</v>
-      </c>
       <c r="AF3" s="16" t="s">
+        <v>1644</v>
+      </c>
+      <c r="AG3" s="16" t="s">
+        <v>1646</v>
+      </c>
+      <c r="AH3" s="16" t="s">
         <v>1645</v>
       </c>
-      <c r="AG3" s="16" t="s">
+      <c r="AI3" s="16" t="s">
         <v>1647</v>
       </c>
-      <c r="AH3" s="16" t="s">
-        <v>1646</v>
-      </c>
-      <c r="AI3" s="16" t="s">
+      <c r="AJ3" s="16" t="s">
         <v>1648</v>
       </c>
-      <c r="AJ3" s="16" t="s">
+      <c r="AK3" s="16" t="s">
         <v>1649</v>
       </c>
-      <c r="AK3" s="16" t="s">
+      <c r="AL3" s="16" t="s">
         <v>1650</v>
       </c>
-      <c r="AL3" s="16" t="s">
-        <v>1651</v>
-      </c>
       <c r="AM3" s="16" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="AN3" s="16" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="AO3" s="16" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="AP3" s="16" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="AQ3" s="16" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="AR3" s="16" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="AS3" s="16" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="AT3" s="16" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="AU3" s="25" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="AV3" s="25" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="AW3" s="25" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="AX3" s="25" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="AY3" s="25" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="AZ3" s="25" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="BA3" s="25" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="BB3" s="25" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="BC3" s="25" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="BD3" s="25" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="4" spans="1:56" ht="16.5" customHeight="1"/>
@@ -6443,7 +6443,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BC30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AD7" sqref="AD7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -6578,7 +6580,7 @@
         <v>1070</v>
       </c>
       <c r="AJ1" s="21" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="AK1" s="21" t="s">
         <v>27</v>
@@ -6593,10 +6595,10 @@
         <v>30</v>
       </c>
       <c r="AO1" s="21" t="s">
+        <v>1638</v>
+      </c>
+      <c r="AP1" s="21" t="s">
         <v>1639</v>
-      </c>
-      <c r="AP1" s="21" t="s">
-        <v>1640</v>
       </c>
       <c r="AQ1" s="21" t="s">
         <v>31</v>
@@ -6819,13 +6821,13 @@
         <v>1580</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>1581</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="H3" s="16" t="s">
         <v>1582</v>
@@ -6840,13 +6842,13 @@
         <v>1585</v>
       </c>
       <c r="L3" s="16" t="s">
+        <v>1661</v>
+      </c>
+      <c r="M3" s="16" t="s">
         <v>1662</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="N3" s="16" t="s">
         <v>1663</v>
-      </c>
-      <c r="N3" s="16" t="s">
-        <v>1664</v>
       </c>
       <c r="O3" s="16" t="s">
         <v>1586</v>
@@ -6882,94 +6884,94 @@
         <v>1596</v>
       </c>
       <c r="Z3" s="16" t="s">
+        <v>1659</v>
+      </c>
+      <c r="AA3" s="16" t="s">
         <v>1660</v>
       </c>
-      <c r="AA3" s="16" t="s">
-        <v>1661</v>
-      </c>
       <c r="AB3" s="16" t="s">
-        <v>1615</v>
+        <v>1664</v>
       </c>
       <c r="AC3" s="16" t="s">
+        <v>1651</v>
+      </c>
+      <c r="AD3" s="16" t="s">
         <v>1652</v>
       </c>
-      <c r="AD3" s="16" t="s">
+      <c r="AE3" s="16" t="s">
         <v>1653</v>
       </c>
-      <c r="AE3" s="16" t="s">
+      <c r="AF3" s="16" t="s">
         <v>1654</v>
       </c>
-      <c r="AF3" s="16" t="s">
+      <c r="AG3" s="16" t="s">
         <v>1655</v>
       </c>
-      <c r="AG3" s="16" t="s">
+      <c r="AH3" s="16" t="s">
+        <v>1647</v>
+      </c>
+      <c r="AI3" s="16" t="s">
         <v>1656</v>
       </c>
-      <c r="AH3" s="16" t="s">
-        <v>1648</v>
-      </c>
-      <c r="AI3" s="16" t="s">
+      <c r="AJ3" s="16" t="s">
+        <v>1649</v>
+      </c>
+      <c r="AK3" s="16" t="s">
+        <v>1650</v>
+      </c>
+      <c r="AL3" s="16" t="s">
+        <v>1650</v>
+      </c>
+      <c r="AM3" s="16" t="s">
+        <v>1650</v>
+      </c>
+      <c r="AN3" s="16" t="s">
+        <v>1650</v>
+      </c>
+      <c r="AO3" s="16" t="s">
+        <v>1650</v>
+      </c>
+      <c r="AP3" s="16" t="s">
+        <v>1650</v>
+      </c>
+      <c r="AQ3" s="16" t="s">
+        <v>1650</v>
+      </c>
+      <c r="AR3" s="16" t="s">
+        <v>1650</v>
+      </c>
+      <c r="AS3" s="16" t="s">
+        <v>1650</v>
+      </c>
+      <c r="AT3" s="25" t="s">
         <v>1657</v>
       </c>
-      <c r="AJ3" s="16" t="s">
-        <v>1650</v>
-      </c>
-      <c r="AK3" s="16" t="s">
-        <v>1651</v>
-      </c>
-      <c r="AL3" s="16" t="s">
-        <v>1651</v>
-      </c>
-      <c r="AM3" s="16" t="s">
-        <v>1651</v>
-      </c>
-      <c r="AN3" s="16" t="s">
-        <v>1651</v>
-      </c>
-      <c r="AO3" s="16" t="s">
-        <v>1651</v>
-      </c>
-      <c r="AP3" s="16" t="s">
-        <v>1651</v>
-      </c>
-      <c r="AQ3" s="16" t="s">
-        <v>1651</v>
-      </c>
-      <c r="AR3" s="16" t="s">
-        <v>1651</v>
-      </c>
-      <c r="AS3" s="16" t="s">
-        <v>1651</v>
-      </c>
-      <c r="AT3" s="25" t="s">
-        <v>1658</v>
-      </c>
       <c r="AU3" s="25" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="AV3" s="25" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="AW3" s="25" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="AX3" s="25" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="AY3" s="25" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="AZ3" s="25" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="BA3" s="25" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="BB3" s="25" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="BC3" s="25" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="4" spans="1:55" ht="16.5" customHeight="1"/>
